--- a/Magyar Madarak.xlsx
+++ b/Magyar Madarak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\SchoolProjects\Szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\SchoolProjects\Szakdolgozat\Magyar-Madarak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DAA7A0-48C1-4C48-82D8-CAB6E5CF274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5AEE9-D2F5-4B71-8A9F-FA6E01180C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0E981BF2-A492-4B7F-A049-828F67BB49DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Magyar nyelv</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Madárhatározó</t>
   </si>
   <si>
-    <t>Közösségi média</t>
-  </si>
-  <si>
-    <t>Magyarországi Madarazó</t>
-  </si>
-  <si>
     <t>Merlin Bird ID</t>
   </si>
   <si>
@@ -89,19 +83,16 @@
     <t>világ (ország szintű)</t>
   </si>
   <si>
-    <t>részben (manuális)</t>
-  </si>
-  <si>
-    <t>kis részben</t>
-  </si>
-  <si>
     <t>EBird</t>
   </si>
   <si>
     <t>Madárhatározó (MME+FIE)</t>
   </si>
   <si>
-    <t>Saját alkalmazás: Magyarországi Madarazó</t>
+    <t>Magyar Madarak</t>
+  </si>
+  <si>
+    <t>Saját alkalmazás: Magyar Madarak</t>
   </si>
 </sst>
 </file>
@@ -160,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -212,50 +203,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalUp="1">
       <left style="thin">
         <color indexed="64"/>
@@ -277,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,20 +239,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -641,22 +576,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBBFF87-1654-48F5-BBDE-B70785FA9CCE}">
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="11" width="20.109375" customWidth="1"/>
+    <col min="3" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
+    <row r="1" spans="2:10" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,141 +618,126 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>12</v>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
+    <row r="8" spans="2:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
